--- a/input_data/Requirements_Data_edited.xlsx
+++ b/input_data/Requirements_Data_edited.xlsx
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E998"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="F245" sqref="F245"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8014,7 +8014,7 @@
   <dimension ref="A1:H881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8072,10 +8072,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
@@ -8092,13 +8092,13 @@
         <v>16</v>
       </c>
       <c r="E3" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="17">
         <v>0</v>
       </c>
       <c r="G3" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
@@ -8115,7 +8115,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>18</v>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
@@ -8206,10 +8206,10 @@
         <v>20</v>
       </c>
       <c r="F8" s="17">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G8" s="18">
-        <v>200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
@@ -8229,10 +8229,10 @@
         <v>40</v>
       </c>
       <c r="F9" s="17">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G9" s="18">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">

--- a/input_data/Requirements_Data_edited.xlsx
+++ b/input_data/Requirements_Data_edited.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="27">
   <si>
     <t>StartDate</t>
   </si>
@@ -73,9 +73,6 @@
     <t>MaxDelay</t>
   </si>
   <si>
-    <t>CO1</t>
-  </si>
-  <si>
     <t>OP10</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>CO2</t>
   </si>
   <si>
     <t>CO3</t>
@@ -509,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2805,7 +2799,7 @@
     </row>
     <row r="122" spans="1:5" ht="12.75" customHeight="1">
       <c r="A122" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B122" s="5">
         <v>44562</v>
@@ -2823,7 +2817,7 @@
     </row>
     <row r="123" spans="1:5" ht="12.75" customHeight="1">
       <c r="A123" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B123" s="5">
         <f>D122</f>
@@ -2842,7 +2836,7 @@
     </row>
     <row r="124" spans="1:5" ht="12.75" customHeight="1">
       <c r="A124" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B124" s="5">
         <f t="shared" ref="B124:B187" si="5">D123</f>
@@ -2861,7 +2855,7 @@
     </row>
     <row r="125" spans="1:5" ht="12.75" customHeight="1">
       <c r="A125" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B125" s="5">
         <f t="shared" si="5"/>
@@ -2880,7 +2874,7 @@
     </row>
     <row r="126" spans="1:5" ht="12.75" customHeight="1">
       <c r="A126" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B126" s="5">
         <f t="shared" si="5"/>
@@ -2899,7 +2893,7 @@
     </row>
     <row r="127" spans="1:5" ht="12.75" customHeight="1">
       <c r="A127" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B127" s="5">
         <f t="shared" si="5"/>
@@ -2918,7 +2912,7 @@
     </row>
     <row r="128" spans="1:5" ht="12.75" customHeight="1">
       <c r="A128" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B128" s="5">
         <f t="shared" si="5"/>
@@ -2937,7 +2931,7 @@
     </row>
     <row r="129" spans="1:5" ht="12.75" customHeight="1">
       <c r="A129" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B129" s="5">
         <f t="shared" si="5"/>
@@ -2956,7 +2950,7 @@
     </row>
     <row r="130" spans="1:5" ht="12.75" customHeight="1">
       <c r="A130" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B130" s="5">
         <f t="shared" si="5"/>
@@ -2975,7 +2969,7 @@
     </row>
     <row r="131" spans="1:5" ht="12.75" customHeight="1">
       <c r="A131" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B131" s="5">
         <f t="shared" si="5"/>
@@ -2994,7 +2988,7 @@
     </row>
     <row r="132" spans="1:5" ht="12.75" customHeight="1">
       <c r="A132" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B132" s="5">
         <f t="shared" si="5"/>
@@ -3013,7 +3007,7 @@
     </row>
     <row r="133" spans="1:5" ht="12.75" customHeight="1">
       <c r="A133" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B133" s="5">
         <f t="shared" si="5"/>
@@ -3032,7 +3026,7 @@
     </row>
     <row r="134" spans="1:5" ht="12.75" customHeight="1">
       <c r="A134" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B134" s="5">
         <f t="shared" si="5"/>
@@ -3051,7 +3045,7 @@
     </row>
     <row r="135" spans="1:5" ht="12.75" customHeight="1">
       <c r="A135" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B135" s="5">
         <f t="shared" si="5"/>
@@ -3070,7 +3064,7 @@
     </row>
     <row r="136" spans="1:5" ht="12.75" customHeight="1">
       <c r="A136" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B136" s="5">
         <f t="shared" si="5"/>
@@ -3089,7 +3083,7 @@
     </row>
     <row r="137" spans="1:5" ht="12.75" customHeight="1">
       <c r="A137" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B137" s="5">
         <f t="shared" si="5"/>
@@ -3108,7 +3102,7 @@
     </row>
     <row r="138" spans="1:5" ht="12.75" customHeight="1">
       <c r="A138" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B138" s="5">
         <f t="shared" si="5"/>
@@ -3127,7 +3121,7 @@
     </row>
     <row r="139" spans="1:5" ht="12.75" customHeight="1">
       <c r="A139" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B139" s="5">
         <f t="shared" si="5"/>
@@ -3146,7 +3140,7 @@
     </row>
     <row r="140" spans="1:5" ht="12.75" customHeight="1">
       <c r="A140" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B140" s="5">
         <f t="shared" si="5"/>
@@ -3165,7 +3159,7 @@
     </row>
     <row r="141" spans="1:5" ht="12.75" customHeight="1">
       <c r="A141" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B141" s="5">
         <f t="shared" si="5"/>
@@ -3184,7 +3178,7 @@
     </row>
     <row r="142" spans="1:5" ht="12.75" customHeight="1">
       <c r="A142" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B142" s="5">
         <f t="shared" si="5"/>
@@ -3203,7 +3197,7 @@
     </row>
     <row r="143" spans="1:5" ht="12.75" customHeight="1">
       <c r="A143" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B143" s="5">
         <f t="shared" si="5"/>
@@ -3222,7 +3216,7 @@
     </row>
     <row r="144" spans="1:5" ht="12.75" customHeight="1">
       <c r="A144" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B144" s="5">
         <f t="shared" si="5"/>
@@ -3241,7 +3235,7 @@
     </row>
     <row r="145" spans="1:5" ht="12.75" customHeight="1">
       <c r="A145" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B145" s="5">
         <f t="shared" si="5"/>
@@ -3260,7 +3254,7 @@
     </row>
     <row r="146" spans="1:5" ht="12.75" customHeight="1">
       <c r="A146" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B146" s="5">
         <f t="shared" si="5"/>
@@ -3279,7 +3273,7 @@
     </row>
     <row r="147" spans="1:5" ht="12.75" customHeight="1">
       <c r="A147" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B147" s="5">
         <f t="shared" si="5"/>
@@ -3298,7 +3292,7 @@
     </row>
     <row r="148" spans="1:5" ht="12.75" customHeight="1">
       <c r="A148" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B148" s="5">
         <f t="shared" si="5"/>
@@ -3317,7 +3311,7 @@
     </row>
     <row r="149" spans="1:5" ht="12.75" customHeight="1">
       <c r="A149" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B149" s="5">
         <f t="shared" si="5"/>
@@ -3336,7 +3330,7 @@
     </row>
     <row r="150" spans="1:5" ht="12.75" customHeight="1">
       <c r="A150" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B150" s="5">
         <f t="shared" si="5"/>
@@ -3355,7 +3349,7 @@
     </row>
     <row r="151" spans="1:5" ht="12.75" customHeight="1">
       <c r="A151" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B151" s="5">
         <f t="shared" si="5"/>
@@ -3374,7 +3368,7 @@
     </row>
     <row r="152" spans="1:5" ht="12.75" customHeight="1">
       <c r="A152" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B152" s="5">
         <f t="shared" si="5"/>
@@ -3393,7 +3387,7 @@
     </row>
     <row r="153" spans="1:5" ht="12.75" customHeight="1">
       <c r="A153" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B153" s="5">
         <f t="shared" si="5"/>
@@ -3412,7 +3406,7 @@
     </row>
     <row r="154" spans="1:5" ht="12.75" customHeight="1">
       <c r="A154" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B154" s="5">
         <f t="shared" si="5"/>
@@ -3431,7 +3425,7 @@
     </row>
     <row r="155" spans="1:5" ht="12.75" customHeight="1">
       <c r="A155" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B155" s="5">
         <f t="shared" si="5"/>
@@ -3450,7 +3444,7 @@
     </row>
     <row r="156" spans="1:5" ht="12.75" customHeight="1">
       <c r="A156" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B156" s="5">
         <f t="shared" si="5"/>
@@ -3469,7 +3463,7 @@
     </row>
     <row r="157" spans="1:5" ht="12.75" customHeight="1">
       <c r="A157" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B157" s="5">
         <f t="shared" si="5"/>
@@ -3488,7 +3482,7 @@
     </row>
     <row r="158" spans="1:5" ht="12.75" customHeight="1">
       <c r="A158" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B158" s="5">
         <f t="shared" si="5"/>
@@ -3507,7 +3501,7 @@
     </row>
     <row r="159" spans="1:5" ht="12.75" customHeight="1">
       <c r="A159" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B159" s="5">
         <f t="shared" si="5"/>
@@ -3526,7 +3520,7 @@
     </row>
     <row r="160" spans="1:5" ht="12.75" customHeight="1">
       <c r="A160" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B160" s="5">
         <f t="shared" si="5"/>
@@ -3545,7 +3539,7 @@
     </row>
     <row r="161" spans="1:5" ht="12.75" customHeight="1">
       <c r="A161" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B161" s="5">
         <f t="shared" si="5"/>
@@ -3564,7 +3558,7 @@
     </row>
     <row r="162" spans="1:5" ht="12.75" customHeight="1">
       <c r="A162" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B162" s="5">
         <f t="shared" si="5"/>
@@ -3583,7 +3577,7 @@
     </row>
     <row r="163" spans="1:5" ht="12.75" customHeight="1">
       <c r="A163" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B163" s="5">
         <f t="shared" si="5"/>
@@ -3602,7 +3596,7 @@
     </row>
     <row r="164" spans="1:5" ht="12.75" customHeight="1">
       <c r="A164" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B164" s="5">
         <f t="shared" si="5"/>
@@ -3621,7 +3615,7 @@
     </row>
     <row r="165" spans="1:5" ht="12.75" customHeight="1">
       <c r="A165" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B165" s="5">
         <f t="shared" si="5"/>
@@ -3640,7 +3634,7 @@
     </row>
     <row r="166" spans="1:5" ht="12.75" customHeight="1">
       <c r="A166" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B166" s="5">
         <f t="shared" si="5"/>
@@ -3659,7 +3653,7 @@
     </row>
     <row r="167" spans="1:5" ht="12.75" customHeight="1">
       <c r="A167" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B167" s="5">
         <f t="shared" si="5"/>
@@ -3678,7 +3672,7 @@
     </row>
     <row r="168" spans="1:5" ht="12.75" customHeight="1">
       <c r="A168" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B168" s="5">
         <f t="shared" si="5"/>
@@ -3697,7 +3691,7 @@
     </row>
     <row r="169" spans="1:5" ht="12.75" customHeight="1">
       <c r="A169" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B169" s="5">
         <f t="shared" si="5"/>
@@ -3716,7 +3710,7 @@
     </row>
     <row r="170" spans="1:5" ht="12.75" customHeight="1">
       <c r="A170" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B170" s="5">
         <f t="shared" si="5"/>
@@ -3735,7 +3729,7 @@
     </row>
     <row r="171" spans="1:5" ht="12.75" customHeight="1">
       <c r="A171" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B171" s="5">
         <f t="shared" si="5"/>
@@ -3754,7 +3748,7 @@
     </row>
     <row r="172" spans="1:5" ht="12.75" customHeight="1">
       <c r="A172" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B172" s="5">
         <f t="shared" si="5"/>
@@ -3773,7 +3767,7 @@
     </row>
     <row r="173" spans="1:5" ht="12.75" customHeight="1">
       <c r="A173" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B173" s="5">
         <f t="shared" si="5"/>
@@ -3792,7 +3786,7 @@
     </row>
     <row r="174" spans="1:5" ht="12.75" customHeight="1">
       <c r="A174" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B174" s="5">
         <f t="shared" si="5"/>
@@ -3811,7 +3805,7 @@
     </row>
     <row r="175" spans="1:5" ht="12.75" customHeight="1">
       <c r="A175" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B175" s="5">
         <f t="shared" si="5"/>
@@ -3830,7 +3824,7 @@
     </row>
     <row r="176" spans="1:5" ht="12.75" customHeight="1">
       <c r="A176" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B176" s="5">
         <f t="shared" si="5"/>
@@ -3849,7 +3843,7 @@
     </row>
     <row r="177" spans="1:5" ht="12.75" customHeight="1">
       <c r="A177" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B177" s="5">
         <f t="shared" si="5"/>
@@ -3868,7 +3862,7 @@
     </row>
     <row r="178" spans="1:5" ht="12.75" customHeight="1">
       <c r="A178" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B178" s="5">
         <f t="shared" si="5"/>
@@ -3887,7 +3881,7 @@
     </row>
     <row r="179" spans="1:5" ht="12.75" customHeight="1">
       <c r="A179" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B179" s="5">
         <f t="shared" si="5"/>
@@ -3906,7 +3900,7 @@
     </row>
     <row r="180" spans="1:5" ht="12.75" customHeight="1">
       <c r="A180" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B180" s="5">
         <f t="shared" si="5"/>
@@ -3925,7 +3919,7 @@
     </row>
     <row r="181" spans="1:5" ht="12.75" customHeight="1">
       <c r="A181" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B181" s="5">
         <f t="shared" si="5"/>
@@ -3944,7 +3938,7 @@
     </row>
     <row r="182" spans="1:5" ht="12.75" customHeight="1">
       <c r="A182" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B182" s="5">
         <f t="shared" si="5"/>
@@ -3963,7 +3957,7 @@
     </row>
     <row r="183" spans="1:5" ht="12.75" customHeight="1">
       <c r="A183" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B183" s="5">
         <f t="shared" si="5"/>
@@ -3982,7 +3976,7 @@
     </row>
     <row r="184" spans="1:5" ht="12.75" customHeight="1">
       <c r="A184" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B184" s="5">
         <f t="shared" si="5"/>
@@ -4001,7 +3995,7 @@
     </row>
     <row r="185" spans="1:5" ht="12.75" customHeight="1">
       <c r="A185" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B185" s="5">
         <f t="shared" si="5"/>
@@ -4020,7 +4014,7 @@
     </row>
     <row r="186" spans="1:5" ht="12.75" customHeight="1">
       <c r="A186" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B186" s="5">
         <f t="shared" si="5"/>
@@ -4039,7 +4033,7 @@
     </row>
     <row r="187" spans="1:5" ht="12.75" customHeight="1">
       <c r="A187" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B187" s="5">
         <f t="shared" si="5"/>
@@ -4058,7 +4052,7 @@
     </row>
     <row r="188" spans="1:5" ht="12.75" customHeight="1">
       <c r="A188" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B188" s="5">
         <f t="shared" ref="B188:B241" si="7">D187</f>
@@ -4077,7 +4071,7 @@
     </row>
     <row r="189" spans="1:5" ht="12.75" customHeight="1">
       <c r="A189" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B189" s="5">
         <f t="shared" si="7"/>
@@ -4096,7 +4090,7 @@
     </row>
     <row r="190" spans="1:5" ht="12.75" customHeight="1">
       <c r="A190" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B190" s="5">
         <f t="shared" si="7"/>
@@ -4115,7 +4109,7 @@
     </row>
     <row r="191" spans="1:5" ht="12.75" customHeight="1">
       <c r="A191" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B191" s="5">
         <f t="shared" si="7"/>
@@ -4134,7 +4128,7 @@
     </row>
     <row r="192" spans="1:5" ht="12.75" customHeight="1">
       <c r="A192" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B192" s="5">
         <f t="shared" si="7"/>
@@ -4153,7 +4147,7 @@
     </row>
     <row r="193" spans="1:5" ht="12.75" customHeight="1">
       <c r="A193" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B193" s="5">
         <f t="shared" si="7"/>
@@ -4172,7 +4166,7 @@
     </row>
     <row r="194" spans="1:5" ht="12.75" customHeight="1">
       <c r="A194" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B194" s="5">
         <f t="shared" si="7"/>
@@ -4191,7 +4185,7 @@
     </row>
     <row r="195" spans="1:5" ht="12.75" customHeight="1">
       <c r="A195" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B195" s="5">
         <f t="shared" si="7"/>
@@ -4210,7 +4204,7 @@
     </row>
     <row r="196" spans="1:5" ht="12.75" customHeight="1">
       <c r="A196" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B196" s="5">
         <f t="shared" si="7"/>
@@ -4229,7 +4223,7 @@
     </row>
     <row r="197" spans="1:5" ht="12.75" customHeight="1">
       <c r="A197" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B197" s="5">
         <f t="shared" si="7"/>
@@ -4248,7 +4242,7 @@
     </row>
     <row r="198" spans="1:5" ht="12.75" customHeight="1">
       <c r="A198" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B198" s="5">
         <f t="shared" si="7"/>
@@ -4267,7 +4261,7 @@
     </row>
     <row r="199" spans="1:5" ht="12.75" customHeight="1">
       <c r="A199" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B199" s="5">
         <f t="shared" si="7"/>
@@ -4286,7 +4280,7 @@
     </row>
     <row r="200" spans="1:5" ht="12.75" customHeight="1">
       <c r="A200" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B200" s="5">
         <f t="shared" si="7"/>
@@ -4305,7 +4299,7 @@
     </row>
     <row r="201" spans="1:5" ht="12.75" customHeight="1">
       <c r="A201" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B201" s="5">
         <f t="shared" si="7"/>
@@ -4324,7 +4318,7 @@
     </row>
     <row r="202" spans="1:5" ht="12.75" customHeight="1">
       <c r="A202" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B202" s="5">
         <f t="shared" si="7"/>
@@ -4343,7 +4337,7 @@
     </row>
     <row r="203" spans="1:5" ht="12.75" customHeight="1">
       <c r="A203" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B203" s="5">
         <f t="shared" si="7"/>
@@ -4362,7 +4356,7 @@
     </row>
     <row r="204" spans="1:5" ht="12.75" customHeight="1">
       <c r="A204" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B204" s="5">
         <f t="shared" si="7"/>
@@ -4381,7 +4375,7 @@
     </row>
     <row r="205" spans="1:5" ht="12.75" customHeight="1">
       <c r="A205" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B205" s="5">
         <f t="shared" si="7"/>
@@ -4400,7 +4394,7 @@
     </row>
     <row r="206" spans="1:5" ht="12.75" customHeight="1">
       <c r="A206" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B206" s="5">
         <f t="shared" si="7"/>
@@ -4419,7 +4413,7 @@
     </row>
     <row r="207" spans="1:5" ht="12.75" customHeight="1">
       <c r="A207" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B207" s="5">
         <f t="shared" si="7"/>
@@ -4438,7 +4432,7 @@
     </row>
     <row r="208" spans="1:5" ht="12.75" customHeight="1">
       <c r="A208" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B208" s="5">
         <f t="shared" si="7"/>
@@ -4457,7 +4451,7 @@
     </row>
     <row r="209" spans="1:5" ht="12.75" customHeight="1">
       <c r="A209" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B209" s="5">
         <f t="shared" si="7"/>
@@ -4476,7 +4470,7 @@
     </row>
     <row r="210" spans="1:5" ht="12.75" customHeight="1">
       <c r="A210" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B210" s="5">
         <f t="shared" si="7"/>
@@ -4495,7 +4489,7 @@
     </row>
     <row r="211" spans="1:5" ht="12.75" customHeight="1">
       <c r="A211" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B211" s="5">
         <f t="shared" si="7"/>
@@ -4514,7 +4508,7 @@
     </row>
     <row r="212" spans="1:5" ht="12.75" customHeight="1">
       <c r="A212" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B212" s="5">
         <f t="shared" si="7"/>
@@ -4533,7 +4527,7 @@
     </row>
     <row r="213" spans="1:5" ht="12.75" customHeight="1">
       <c r="A213" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B213" s="5">
         <f t="shared" si="7"/>
@@ -4552,7 +4546,7 @@
     </row>
     <row r="214" spans="1:5" ht="12.75" customHeight="1">
       <c r="A214" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B214" s="5">
         <f t="shared" si="7"/>
@@ -4571,7 +4565,7 @@
     </row>
     <row r="215" spans="1:5" ht="12.75" customHeight="1">
       <c r="A215" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B215" s="5">
         <f t="shared" si="7"/>
@@ -4590,7 +4584,7 @@
     </row>
     <row r="216" spans="1:5" ht="12.75" customHeight="1">
       <c r="A216" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B216" s="5">
         <f t="shared" si="7"/>
@@ -4609,7 +4603,7 @@
     </row>
     <row r="217" spans="1:5" ht="12.75" customHeight="1">
       <c r="A217" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B217" s="5">
         <f t="shared" si="7"/>
@@ -4628,7 +4622,7 @@
     </row>
     <row r="218" spans="1:5" ht="12.75" customHeight="1">
       <c r="A218" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B218" s="5">
         <f t="shared" si="7"/>
@@ -4647,7 +4641,7 @@
     </row>
     <row r="219" spans="1:5" ht="12.75" customHeight="1">
       <c r="A219" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B219" s="5">
         <f t="shared" si="7"/>
@@ -4666,7 +4660,7 @@
     </row>
     <row r="220" spans="1:5" ht="12.75" customHeight="1">
       <c r="A220" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B220" s="5">
         <f t="shared" si="7"/>
@@ -4685,7 +4679,7 @@
     </row>
     <row r="221" spans="1:5" ht="12.75" customHeight="1">
       <c r="A221" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B221" s="5">
         <f t="shared" si="7"/>
@@ -4704,7 +4698,7 @@
     </row>
     <row r="222" spans="1:5" ht="12.75" customHeight="1">
       <c r="A222" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B222" s="5">
         <f t="shared" si="7"/>
@@ -4723,7 +4717,7 @@
     </row>
     <row r="223" spans="1:5" ht="12.75" customHeight="1">
       <c r="A223" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B223" s="5">
         <f t="shared" si="7"/>
@@ -4742,7 +4736,7 @@
     </row>
     <row r="224" spans="1:5" ht="12.75" customHeight="1">
       <c r="A224" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B224" s="5">
         <f t="shared" si="7"/>
@@ -4761,7 +4755,7 @@
     </row>
     <row r="225" spans="1:5" ht="12.75" customHeight="1">
       <c r="A225" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B225" s="5">
         <f t="shared" si="7"/>
@@ -4780,7 +4774,7 @@
     </row>
     <row r="226" spans="1:5" ht="12.75" customHeight="1">
       <c r="A226" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B226" s="5">
         <f t="shared" si="7"/>
@@ -4799,7 +4793,7 @@
     </row>
     <row r="227" spans="1:5" ht="12.75" customHeight="1">
       <c r="A227" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B227" s="5">
         <f t="shared" si="7"/>
@@ -4818,7 +4812,7 @@
     </row>
     <row r="228" spans="1:5" ht="12.75" customHeight="1">
       <c r="A228" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B228" s="5">
         <f t="shared" si="7"/>
@@ -4837,7 +4831,7 @@
     </row>
     <row r="229" spans="1:5" ht="12.75" customHeight="1">
       <c r="A229" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B229" s="5">
         <f t="shared" si="7"/>
@@ -4856,7 +4850,7 @@
     </row>
     <row r="230" spans="1:5" ht="12.75" customHeight="1">
       <c r="A230" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B230" s="5">
         <f t="shared" si="7"/>
@@ -4875,7 +4869,7 @@
     </row>
     <row r="231" spans="1:5" ht="12.75" customHeight="1">
       <c r="A231" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B231" s="5">
         <f t="shared" si="7"/>
@@ -4894,7 +4888,7 @@
     </row>
     <row r="232" spans="1:5" ht="12.75" customHeight="1">
       <c r="A232" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B232" s="5">
         <f t="shared" si="7"/>
@@ -4913,7 +4907,7 @@
     </row>
     <row r="233" spans="1:5" ht="12.75" customHeight="1">
       <c r="A233" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B233" s="5">
         <f t="shared" si="7"/>
@@ -4932,7 +4926,7 @@
     </row>
     <row r="234" spans="1:5" ht="12.75" customHeight="1">
       <c r="A234" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B234" s="5">
         <f t="shared" si="7"/>
@@ -4951,7 +4945,7 @@
     </row>
     <row r="235" spans="1:5" ht="12.75" customHeight="1">
       <c r="A235" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B235" s="5">
         <f t="shared" si="7"/>
@@ -4970,7 +4964,7 @@
     </row>
     <row r="236" spans="1:5" ht="12.75" customHeight="1">
       <c r="A236" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B236" s="5">
         <f t="shared" si="7"/>
@@ -4989,7 +4983,7 @@
     </row>
     <row r="237" spans="1:5" ht="12.75" customHeight="1">
       <c r="A237" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B237" s="5">
         <f t="shared" si="7"/>
@@ -5008,7 +5002,7 @@
     </row>
     <row r="238" spans="1:5" ht="12.75" customHeight="1">
       <c r="A238" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B238" s="5">
         <f t="shared" si="7"/>
@@ -5027,7 +5021,7 @@
     </row>
     <row r="239" spans="1:5" ht="12.75" customHeight="1">
       <c r="A239" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B239" s="5">
         <f t="shared" si="7"/>
@@ -5046,7 +5040,7 @@
     </row>
     <row r="240" spans="1:5" ht="12.75" customHeight="1">
       <c r="A240" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B240" s="5">
         <f t="shared" si="7"/>
@@ -5065,7 +5059,7 @@
     </row>
     <row r="241" spans="1:5" ht="12.75" customHeight="1">
       <c r="A241" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B241" s="5">
         <f t="shared" si="7"/>
@@ -5084,7 +5078,7 @@
     </row>
     <row r="242" spans="1:5" ht="12.75" customHeight="1">
       <c r="A242" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B242" s="5">
         <v>44562</v>
@@ -5102,7 +5096,7 @@
     </row>
     <row r="243" spans="1:5" ht="12.75" customHeight="1">
       <c r="A243" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B243" s="5">
         <f>D242</f>
@@ -5121,7 +5115,7 @@
     </row>
     <row r="244" spans="1:5" ht="12.75" customHeight="1">
       <c r="A244" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B244" s="5">
         <f t="shared" ref="B244:B307" si="9">D243</f>
@@ -5140,7 +5134,7 @@
     </row>
     <row r="245" spans="1:5" ht="12.75" customHeight="1">
       <c r="A245" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B245" s="5">
         <f t="shared" si="9"/>
@@ -5159,7 +5153,7 @@
     </row>
     <row r="246" spans="1:5" ht="12.75" customHeight="1">
       <c r="A246" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B246" s="5">
         <f t="shared" si="9"/>
@@ -5178,7 +5172,7 @@
     </row>
     <row r="247" spans="1:5" ht="12.75" customHeight="1">
       <c r="A247" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B247" s="5">
         <f t="shared" si="9"/>
@@ -5197,7 +5191,7 @@
     </row>
     <row r="248" spans="1:5" ht="12.75" customHeight="1">
       <c r="A248" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B248" s="5">
         <f t="shared" si="9"/>
@@ -5216,7 +5210,7 @@
     </row>
     <row r="249" spans="1:5" ht="12.75" customHeight="1">
       <c r="A249" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B249" s="5">
         <f t="shared" si="9"/>
@@ -5235,7 +5229,7 @@
     </row>
     <row r="250" spans="1:5" ht="12.75" customHeight="1">
       <c r="A250" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B250" s="5">
         <f t="shared" si="9"/>
@@ -5254,7 +5248,7 @@
     </row>
     <row r="251" spans="1:5" ht="12.75" customHeight="1">
       <c r="A251" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B251" s="5">
         <f t="shared" si="9"/>
@@ -5273,7 +5267,7 @@
     </row>
     <row r="252" spans="1:5" ht="12.75" customHeight="1">
       <c r="A252" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B252" s="5">
         <f t="shared" si="9"/>
@@ -5292,7 +5286,7 @@
     </row>
     <row r="253" spans="1:5" ht="12.75" customHeight="1">
       <c r="A253" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B253" s="5">
         <f t="shared" si="9"/>
@@ -5311,7 +5305,7 @@
     </row>
     <row r="254" spans="1:5" ht="12.75" customHeight="1">
       <c r="A254" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B254" s="5">
         <f t="shared" si="9"/>
@@ -5330,7 +5324,7 @@
     </row>
     <row r="255" spans="1:5" ht="12.75" customHeight="1">
       <c r="A255" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B255" s="5">
         <f t="shared" si="9"/>
@@ -5349,7 +5343,7 @@
     </row>
     <row r="256" spans="1:5" ht="12.75" customHeight="1">
       <c r="A256" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B256" s="5">
         <f t="shared" si="9"/>
@@ -5368,7 +5362,7 @@
     </row>
     <row r="257" spans="1:5" ht="12.75" customHeight="1">
       <c r="A257" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B257" s="5">
         <f t="shared" si="9"/>
@@ -5387,7 +5381,7 @@
     </row>
     <row r="258" spans="1:5" ht="12.75" customHeight="1">
       <c r="A258" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B258" s="5">
         <f t="shared" si="9"/>
@@ -5406,7 +5400,7 @@
     </row>
     <row r="259" spans="1:5" ht="12.75" customHeight="1">
       <c r="A259" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B259" s="5">
         <f t="shared" si="9"/>
@@ -5425,7 +5419,7 @@
     </row>
     <row r="260" spans="1:5" ht="12.75" customHeight="1">
       <c r="A260" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B260" s="5">
         <f t="shared" si="9"/>
@@ -5444,7 +5438,7 @@
     </row>
     <row r="261" spans="1:5" ht="12.75" customHeight="1">
       <c r="A261" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B261" s="5">
         <f t="shared" si="9"/>
@@ -5463,7 +5457,7 @@
     </row>
     <row r="262" spans="1:5" ht="12.75" customHeight="1">
       <c r="A262" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B262" s="5">
         <f t="shared" si="9"/>
@@ -5482,7 +5476,7 @@
     </row>
     <row r="263" spans="1:5" ht="12.75" customHeight="1">
       <c r="A263" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B263" s="5">
         <f t="shared" si="9"/>
@@ -5501,7 +5495,7 @@
     </row>
     <row r="264" spans="1:5" ht="12.75" customHeight="1">
       <c r="A264" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B264" s="5">
         <f t="shared" si="9"/>
@@ -5520,7 +5514,7 @@
     </row>
     <row r="265" spans="1:5" ht="12.75" customHeight="1">
       <c r="A265" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B265" s="5">
         <f t="shared" si="9"/>
@@ -5539,7 +5533,7 @@
     </row>
     <row r="266" spans="1:5" ht="12.75" customHeight="1">
       <c r="A266" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B266" s="5">
         <f t="shared" si="9"/>
@@ -5558,7 +5552,7 @@
     </row>
     <row r="267" spans="1:5" ht="12.75" customHeight="1">
       <c r="A267" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B267" s="5">
         <f t="shared" si="9"/>
@@ -5577,7 +5571,7 @@
     </row>
     <row r="268" spans="1:5" ht="12.75" customHeight="1">
       <c r="A268" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B268" s="5">
         <f t="shared" si="9"/>
@@ -5596,7 +5590,7 @@
     </row>
     <row r="269" spans="1:5" ht="12.75" customHeight="1">
       <c r="A269" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B269" s="5">
         <f t="shared" si="9"/>
@@ -5615,7 +5609,7 @@
     </row>
     <row r="270" spans="1:5" ht="12.75" customHeight="1">
       <c r="A270" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B270" s="5">
         <f t="shared" si="9"/>
@@ -5634,7 +5628,7 @@
     </row>
     <row r="271" spans="1:5" ht="12.75" customHeight="1">
       <c r="A271" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B271" s="5">
         <f t="shared" si="9"/>
@@ -5653,7 +5647,7 @@
     </row>
     <row r="272" spans="1:5" ht="12.75" customHeight="1">
       <c r="A272" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B272" s="5">
         <f t="shared" si="9"/>
@@ -5672,7 +5666,7 @@
     </row>
     <row r="273" spans="1:5" ht="12.75" customHeight="1">
       <c r="A273" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B273" s="5">
         <f t="shared" si="9"/>
@@ -5691,7 +5685,7 @@
     </row>
     <row r="274" spans="1:5" ht="12.75" customHeight="1">
       <c r="A274" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B274" s="5">
         <f t="shared" si="9"/>
@@ -5710,7 +5704,7 @@
     </row>
     <row r="275" spans="1:5" ht="12.75" customHeight="1">
       <c r="A275" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B275" s="5">
         <f t="shared" si="9"/>
@@ -5729,7 +5723,7 @@
     </row>
     <row r="276" spans="1:5" ht="12.75" customHeight="1">
       <c r="A276" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B276" s="5">
         <f t="shared" si="9"/>
@@ -5748,7 +5742,7 @@
     </row>
     <row r="277" spans="1:5" ht="12.75" customHeight="1">
       <c r="A277" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B277" s="5">
         <f t="shared" si="9"/>
@@ -5767,7 +5761,7 @@
     </row>
     <row r="278" spans="1:5" ht="12.75" customHeight="1">
       <c r="A278" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B278" s="5">
         <f t="shared" si="9"/>
@@ -5786,7 +5780,7 @@
     </row>
     <row r="279" spans="1:5" ht="12.75" customHeight="1">
       <c r="A279" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B279" s="5">
         <f t="shared" si="9"/>
@@ -5805,7 +5799,7 @@
     </row>
     <row r="280" spans="1:5" ht="12.75" customHeight="1">
       <c r="A280" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B280" s="5">
         <f t="shared" si="9"/>
@@ -5824,7 +5818,7 @@
     </row>
     <row r="281" spans="1:5" ht="12.75" customHeight="1">
       <c r="A281" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B281" s="5">
         <f t="shared" si="9"/>
@@ -5843,7 +5837,7 @@
     </row>
     <row r="282" spans="1:5" ht="12.75" customHeight="1">
       <c r="A282" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B282" s="5">
         <f t="shared" si="9"/>
@@ -5862,7 +5856,7 @@
     </row>
     <row r="283" spans="1:5" ht="12.75" customHeight="1">
       <c r="A283" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B283" s="5">
         <f t="shared" si="9"/>
@@ -5881,7 +5875,7 @@
     </row>
     <row r="284" spans="1:5" ht="12.75" customHeight="1">
       <c r="A284" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B284" s="5">
         <f t="shared" si="9"/>
@@ -5900,7 +5894,7 @@
     </row>
     <row r="285" spans="1:5" ht="12.75" customHeight="1">
       <c r="A285" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B285" s="5">
         <f t="shared" si="9"/>
@@ -5919,7 +5913,7 @@
     </row>
     <row r="286" spans="1:5" ht="12.75" customHeight="1">
       <c r="A286" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B286" s="5">
         <f t="shared" si="9"/>
@@ -5938,7 +5932,7 @@
     </row>
     <row r="287" spans="1:5" ht="12.75" customHeight="1">
       <c r="A287" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B287" s="5">
         <f t="shared" si="9"/>
@@ -5957,7 +5951,7 @@
     </row>
     <row r="288" spans="1:5" ht="12.75" customHeight="1">
       <c r="A288" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B288" s="5">
         <f t="shared" si="9"/>
@@ -5976,7 +5970,7 @@
     </row>
     <row r="289" spans="1:5" ht="12.75" customHeight="1">
       <c r="A289" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B289" s="5">
         <f t="shared" si="9"/>
@@ -5995,7 +5989,7 @@
     </row>
     <row r="290" spans="1:5" ht="12.75" customHeight="1">
       <c r="A290" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B290" s="5">
         <f t="shared" si="9"/>
@@ -6014,7 +6008,7 @@
     </row>
     <row r="291" spans="1:5" ht="12.75" customHeight="1">
       <c r="A291" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B291" s="5">
         <f t="shared" si="9"/>
@@ -6033,7 +6027,7 @@
     </row>
     <row r="292" spans="1:5" ht="12.75" customHeight="1">
       <c r="A292" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B292" s="5">
         <f t="shared" si="9"/>
@@ -6052,7 +6046,7 @@
     </row>
     <row r="293" spans="1:5" ht="12.75" customHeight="1">
       <c r="A293" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B293" s="5">
         <f t="shared" si="9"/>
@@ -6071,7 +6065,7 @@
     </row>
     <row r="294" spans="1:5" ht="12.75" customHeight="1">
       <c r="A294" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B294" s="5">
         <f t="shared" si="9"/>
@@ -6090,7 +6084,7 @@
     </row>
     <row r="295" spans="1:5" ht="12.75" customHeight="1">
       <c r="A295" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B295" s="5">
         <f t="shared" si="9"/>
@@ -6109,7 +6103,7 @@
     </row>
     <row r="296" spans="1:5" ht="12.75" customHeight="1">
       <c r="A296" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B296" s="5">
         <f t="shared" si="9"/>
@@ -6128,7 +6122,7 @@
     </row>
     <row r="297" spans="1:5" ht="12.75" customHeight="1">
       <c r="A297" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B297" s="5">
         <f t="shared" si="9"/>
@@ -6147,7 +6141,7 @@
     </row>
     <row r="298" spans="1:5" ht="12.75" customHeight="1">
       <c r="A298" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B298" s="5">
         <f t="shared" si="9"/>
@@ -6166,7 +6160,7 @@
     </row>
     <row r="299" spans="1:5" ht="12.75" customHeight="1">
       <c r="A299" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B299" s="5">
         <f t="shared" si="9"/>
@@ -6185,7 +6179,7 @@
     </row>
     <row r="300" spans="1:5" ht="12.75" customHeight="1">
       <c r="A300" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B300" s="5">
         <f t="shared" si="9"/>
@@ -6204,7 +6198,7 @@
     </row>
     <row r="301" spans="1:5" ht="12.75" customHeight="1">
       <c r="A301" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B301" s="5">
         <f t="shared" si="9"/>
@@ -6223,7 +6217,7 @@
     </row>
     <row r="302" spans="1:5" ht="12.75" customHeight="1">
       <c r="A302" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B302" s="5">
         <f t="shared" si="9"/>
@@ -6242,7 +6236,7 @@
     </row>
     <row r="303" spans="1:5" ht="12.75" customHeight="1">
       <c r="A303" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B303" s="5">
         <f t="shared" si="9"/>
@@ -6261,7 +6255,7 @@
     </row>
     <row r="304" spans="1:5" ht="12.75" customHeight="1">
       <c r="A304" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B304" s="5">
         <f t="shared" si="9"/>
@@ -6280,7 +6274,7 @@
     </row>
     <row r="305" spans="1:5" ht="12.75" customHeight="1">
       <c r="A305" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B305" s="5">
         <f t="shared" si="9"/>
@@ -6299,7 +6293,7 @@
     </row>
     <row r="306" spans="1:5" ht="12.75" customHeight="1">
       <c r="A306" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B306" s="5">
         <f t="shared" si="9"/>
@@ -6318,7 +6312,7 @@
     </row>
     <row r="307" spans="1:5" ht="12.75" customHeight="1">
       <c r="A307" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B307" s="5">
         <f t="shared" si="9"/>
@@ -6337,7 +6331,7 @@
     </row>
     <row r="308" spans="1:5" ht="12.75" customHeight="1">
       <c r="A308" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B308" s="5">
         <f t="shared" ref="B308:B361" si="11">D307</f>
@@ -6356,7 +6350,7 @@
     </row>
     <row r="309" spans="1:5" ht="12.75" customHeight="1">
       <c r="A309" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B309" s="5">
         <f t="shared" si="11"/>
@@ -6375,7 +6369,7 @@
     </row>
     <row r="310" spans="1:5" ht="12.75" customHeight="1">
       <c r="A310" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B310" s="5">
         <f t="shared" si="11"/>
@@ -6394,7 +6388,7 @@
     </row>
     <row r="311" spans="1:5" ht="12.75" customHeight="1">
       <c r="A311" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B311" s="5">
         <f t="shared" si="11"/>
@@ -6413,7 +6407,7 @@
     </row>
     <row r="312" spans="1:5" ht="12.75" customHeight="1">
       <c r="A312" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B312" s="5">
         <f t="shared" si="11"/>
@@ -6432,7 +6426,7 @@
     </row>
     <row r="313" spans="1:5" ht="12.75" customHeight="1">
       <c r="A313" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B313" s="5">
         <f t="shared" si="11"/>
@@ -6451,7 +6445,7 @@
     </row>
     <row r="314" spans="1:5" ht="12.75" customHeight="1">
       <c r="A314" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B314" s="5">
         <f t="shared" si="11"/>
@@ -6470,7 +6464,7 @@
     </row>
     <row r="315" spans="1:5" ht="12.75" customHeight="1">
       <c r="A315" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B315" s="5">
         <f t="shared" si="11"/>
@@ -6489,7 +6483,7 @@
     </row>
     <row r="316" spans="1:5" ht="12.75" customHeight="1">
       <c r="A316" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B316" s="5">
         <f t="shared" si="11"/>
@@ -6508,7 +6502,7 @@
     </row>
     <row r="317" spans="1:5" ht="12.75" customHeight="1">
       <c r="A317" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B317" s="5">
         <f t="shared" si="11"/>
@@ -6527,7 +6521,7 @@
     </row>
     <row r="318" spans="1:5" ht="12.75" customHeight="1">
       <c r="A318" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B318" s="5">
         <f t="shared" si="11"/>
@@ -6546,7 +6540,7 @@
     </row>
     <row r="319" spans="1:5" ht="12.75" customHeight="1">
       <c r="A319" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B319" s="5">
         <f t="shared" si="11"/>
@@ -6565,7 +6559,7 @@
     </row>
     <row r="320" spans="1:5" ht="12.75" customHeight="1">
       <c r="A320" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B320" s="5">
         <f t="shared" si="11"/>
@@ -6584,7 +6578,7 @@
     </row>
     <row r="321" spans="1:5" ht="12.75" customHeight="1">
       <c r="A321" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B321" s="5">
         <f t="shared" si="11"/>
@@ -6603,7 +6597,7 @@
     </row>
     <row r="322" spans="1:5" ht="12.75" customHeight="1">
       <c r="A322" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B322" s="5">
         <f t="shared" si="11"/>
@@ -6622,7 +6616,7 @@
     </row>
     <row r="323" spans="1:5" ht="12.75" customHeight="1">
       <c r="A323" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B323" s="5">
         <f t="shared" si="11"/>
@@ -6641,7 +6635,7 @@
     </row>
     <row r="324" spans="1:5" ht="12.75" customHeight="1">
       <c r="A324" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B324" s="5">
         <f t="shared" si="11"/>
@@ -6660,7 +6654,7 @@
     </row>
     <row r="325" spans="1:5" ht="12.75" customHeight="1">
       <c r="A325" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B325" s="5">
         <f t="shared" si="11"/>
@@ -6679,7 +6673,7 @@
     </row>
     <row r="326" spans="1:5" ht="12.75" customHeight="1">
       <c r="A326" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B326" s="5">
         <f t="shared" si="11"/>
@@ -6698,7 +6692,7 @@
     </row>
     <row r="327" spans="1:5" ht="12.75" customHeight="1">
       <c r="A327" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B327" s="5">
         <f t="shared" si="11"/>
@@ -6717,7 +6711,7 @@
     </row>
     <row r="328" spans="1:5" ht="12.75" customHeight="1">
       <c r="A328" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B328" s="5">
         <f t="shared" si="11"/>
@@ -6736,7 +6730,7 @@
     </row>
     <row r="329" spans="1:5" ht="12.75" customHeight="1">
       <c r="A329" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B329" s="5">
         <f t="shared" si="11"/>
@@ -6755,7 +6749,7 @@
     </row>
     <row r="330" spans="1:5" ht="12.75" customHeight="1">
       <c r="A330" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B330" s="5">
         <f t="shared" si="11"/>
@@ -6774,7 +6768,7 @@
     </row>
     <row r="331" spans="1:5" ht="12.75" customHeight="1">
       <c r="A331" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B331" s="5">
         <f t="shared" si="11"/>
@@ -6793,7 +6787,7 @@
     </row>
     <row r="332" spans="1:5" ht="12.75" customHeight="1">
       <c r="A332" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B332" s="5">
         <f t="shared" si="11"/>
@@ -6812,7 +6806,7 @@
     </row>
     <row r="333" spans="1:5" ht="12.75" customHeight="1">
       <c r="A333" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B333" s="5">
         <f t="shared" si="11"/>
@@ -6831,7 +6825,7 @@
     </row>
     <row r="334" spans="1:5" ht="12.75" customHeight="1">
       <c r="A334" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B334" s="5">
         <f t="shared" si="11"/>
@@ -6850,7 +6844,7 @@
     </row>
     <row r="335" spans="1:5" ht="12.75" customHeight="1">
       <c r="A335" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B335" s="5">
         <f t="shared" si="11"/>
@@ -6869,7 +6863,7 @@
     </row>
     <row r="336" spans="1:5" ht="12.75" customHeight="1">
       <c r="A336" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B336" s="5">
         <f t="shared" si="11"/>
@@ -6888,7 +6882,7 @@
     </row>
     <row r="337" spans="1:5" ht="12.75" customHeight="1">
       <c r="A337" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B337" s="5">
         <f t="shared" si="11"/>
@@ -6907,7 +6901,7 @@
     </row>
     <row r="338" spans="1:5" ht="12.75" customHeight="1">
       <c r="A338" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B338" s="5">
         <f t="shared" si="11"/>
@@ -6926,7 +6920,7 @@
     </row>
     <row r="339" spans="1:5" ht="12.75" customHeight="1">
       <c r="A339" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B339" s="5">
         <f t="shared" si="11"/>
@@ -6945,7 +6939,7 @@
     </row>
     <row r="340" spans="1:5" ht="12.75" customHeight="1">
       <c r="A340" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B340" s="5">
         <f t="shared" si="11"/>
@@ -6964,7 +6958,7 @@
     </row>
     <row r="341" spans="1:5" ht="12.75" customHeight="1">
       <c r="A341" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B341" s="5">
         <f t="shared" si="11"/>
@@ -6983,7 +6977,7 @@
     </row>
     <row r="342" spans="1:5" ht="12.75" customHeight="1">
       <c r="A342" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B342" s="5">
         <f t="shared" si="11"/>
@@ -7002,7 +6996,7 @@
     </row>
     <row r="343" spans="1:5" ht="12.75" customHeight="1">
       <c r="A343" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B343" s="5">
         <f t="shared" si="11"/>
@@ -7021,7 +7015,7 @@
     </row>
     <row r="344" spans="1:5" ht="12.75" customHeight="1">
       <c r="A344" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B344" s="5">
         <f t="shared" si="11"/>
@@ -7040,7 +7034,7 @@
     </row>
     <row r="345" spans="1:5" ht="12.75" customHeight="1">
       <c r="A345" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B345" s="5">
         <f t="shared" si="11"/>
@@ -7059,7 +7053,7 @@
     </row>
     <row r="346" spans="1:5" ht="12.75" customHeight="1">
       <c r="A346" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B346" s="5">
         <f t="shared" si="11"/>
@@ -7078,7 +7072,7 @@
     </row>
     <row r="347" spans="1:5" ht="12.75" customHeight="1">
       <c r="A347" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B347" s="5">
         <f t="shared" si="11"/>
@@ -7097,7 +7091,7 @@
     </row>
     <row r="348" spans="1:5" ht="12.75" customHeight="1">
       <c r="A348" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B348" s="5">
         <f t="shared" si="11"/>
@@ -7116,7 +7110,7 @@
     </row>
     <row r="349" spans="1:5" ht="12.75" customHeight="1">
       <c r="A349" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B349" s="5">
         <f t="shared" si="11"/>
@@ -7135,7 +7129,7 @@
     </row>
     <row r="350" spans="1:5" ht="12.75" customHeight="1">
       <c r="A350" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B350" s="5">
         <f t="shared" si="11"/>
@@ -7154,7 +7148,7 @@
     </row>
     <row r="351" spans="1:5" ht="12.75" customHeight="1">
       <c r="A351" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B351" s="5">
         <f t="shared" si="11"/>
@@ -7173,7 +7167,7 @@
     </row>
     <row r="352" spans="1:5" ht="12.75" customHeight="1">
       <c r="A352" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B352" s="5">
         <f t="shared" si="11"/>
@@ -7192,7 +7186,7 @@
     </row>
     <row r="353" spans="1:5" ht="12.75" customHeight="1">
       <c r="A353" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B353" s="5">
         <f t="shared" si="11"/>
@@ -7211,7 +7205,7 @@
     </row>
     <row r="354" spans="1:5" ht="12.75" customHeight="1">
       <c r="A354" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B354" s="5">
         <f t="shared" si="11"/>
@@ -7230,7 +7224,7 @@
     </row>
     <row r="355" spans="1:5" ht="12.75" customHeight="1">
       <c r="A355" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B355" s="5">
         <f t="shared" si="11"/>
@@ -7249,7 +7243,7 @@
     </row>
     <row r="356" spans="1:5" ht="12.75" customHeight="1">
       <c r="A356" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B356" s="5">
         <f t="shared" si="11"/>
@@ -7268,7 +7262,7 @@
     </row>
     <row r="357" spans="1:5" ht="12.75" customHeight="1">
       <c r="A357" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B357" s="5">
         <f t="shared" si="11"/>
@@ -7287,7 +7281,7 @@
     </row>
     <row r="358" spans="1:5" ht="12.75" customHeight="1">
       <c r="A358" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B358" s="5">
         <f t="shared" si="11"/>
@@ -7306,7 +7300,7 @@
     </row>
     <row r="359" spans="1:5" ht="12.75" customHeight="1">
       <c r="A359" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B359" s="5">
         <f t="shared" si="11"/>
@@ -7325,7 +7319,7 @@
     </row>
     <row r="360" spans="1:5" ht="12.75" customHeight="1">
       <c r="A360" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B360" s="5">
         <f t="shared" si="11"/>
@@ -7344,7 +7338,7 @@
     </row>
     <row r="361" spans="1:5" ht="12.75" customHeight="1">
       <c r="A361" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B361" s="5">
         <f t="shared" si="11"/>
@@ -8011,10 +8005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H881"/>
+  <dimension ref="A1:H875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8039,13 +8033,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>12</v>
@@ -8057,10 +8051,10 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>4</v>
@@ -8069,33 +8063,33 @@
         <v>16</v>
       </c>
       <c r="E2" s="16">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F2" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="18">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="16">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F3" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="18">
         <v>4</v>
@@ -8103,160 +8097,44 @@
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="16">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>2</v>
-      </c>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>2</v>
-      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="16">
-        <v>20</v>
-      </c>
-      <c r="F8" s="17">
-        <v>2</v>
-      </c>
-      <c r="G8" s="18">
-        <v>3</v>
-      </c>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16">
-        <v>40</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18">
-        <v>4</v>
-      </c>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="16">
-        <v>30</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="D11" s="13"/>
@@ -8513,35 +8391,23 @@
     <row r="95" spans="4:4" ht="12.75" customHeight="1">
       <c r="D95" s="13"/>
     </row>
-    <row r="96" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D96" s="13"/>
-    </row>
-    <row r="97" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D97" s="13"/>
-    </row>
-    <row r="98" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D98" s="13"/>
-    </row>
-    <row r="99" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D99" s="13"/>
-    </row>
-    <row r="100" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D100" s="13"/>
-    </row>
-    <row r="101" spans="4:4" ht="12.75" customHeight="1">
-      <c r="D101" s="13"/>
-    </row>
-    <row r="102" spans="4:4" ht="12.75" customHeight="1"/>
-    <row r="103" spans="4:4" ht="12.75" customHeight="1"/>
-    <row r="104" spans="4:4" ht="12.75" customHeight="1"/>
-    <row r="105" spans="4:4" ht="12.75" customHeight="1"/>
-    <row r="106" spans="4:4" ht="12.75" customHeight="1"/>
-    <row r="107" spans="4:4" ht="12.75" customHeight="1"/>
-    <row r="108" spans="4:4" ht="12.75" customHeight="1"/>
-    <row r="109" spans="4:4" ht="12.75" customHeight="1"/>
-    <row r="110" spans="4:4" ht="12.75" customHeight="1"/>
-    <row r="111" spans="4:4" ht="12.75" customHeight="1"/>
-    <row r="112" spans="4:4" ht="12.75" customHeight="1"/>
+    <row r="96" spans="4:4" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
     <row r="113" ht="12.75" customHeight="1"/>
     <row r="114" ht="12.75" customHeight="1"/>
     <row r="115" ht="12.75" customHeight="1"/>
@@ -9305,12 +9171,6 @@
     <row r="873" ht="12.75" customHeight="1"/>
     <row r="874" ht="12.75" customHeight="1"/>
     <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9336,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -9353,7 +9213,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -9404,7 +9264,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>

--- a/input_data/Requirements_Data_edited.xlsx
+++ b/input_data/Requirements_Data_edited.xlsx
@@ -8008,7 +8008,7 @@
   <dimension ref="A1:H875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8089,7 +8089,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="18">
         <v>4</v>

--- a/input_data/Requirements_Data_edited.xlsx
+++ b/input_data/Requirements_Data_edited.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="29">
   <si>
     <t>StartDate</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>M3</t>
+  </si>
+  <si>
+    <t>CO1</t>
+  </si>
+  <si>
+    <t>CO2</t>
   </si>
 </sst>
 </file>
@@ -8008,7 +8014,7 @@
   <dimension ref="A1:H875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8051,7 +8057,7 @@
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>14</v>
@@ -8060,21 +8066,21 @@
         <v>4</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="16">
+        <v>4</v>
+      </c>
+      <c r="F2" s="17">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18">
         <v>20</v>
-      </c>
-      <c r="F2" s="17">
-        <v>4</v>
-      </c>
-      <c r="G2" s="18">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>16</v>
@@ -8086,7 +8092,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="16">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F3" s="17">
         <v>0</v>
@@ -8097,7 +8103,7 @@
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>15</v>
@@ -8109,7 +8115,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="16">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>17</v>
@@ -8119,22 +8125,138 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="D5" s="13"/>
+      <c r="A5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="D6" s="13"/>
+      <c r="A6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="D7" s="13"/>
+      <c r="A7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="D8" s="13"/>
+      <c r="A8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="D9" s="13"/>
+      <c r="A9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="16">
+        <v>40</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="D10" s="13"/>
+      <c r="A10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="16">
+        <v>30</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="D11" s="13"/>

--- a/input_data/Requirements_Data_edited.xlsx
+++ b/input_data/Requirements_Data_edited.xlsx
@@ -191,7 +191,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +201,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -269,6 +299,13 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -494,7 +531,7 @@
   <dimension ref="A1:E998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8011,10 +8048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H875"/>
+  <dimension ref="A1:V872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8023,15 +8060,17 @@
     <col min="2" max="2" width="5.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" style="14" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="14" customWidth="1"/>
-    <col min="9" max="17" width="14.44140625" style="14" customWidth="1"/>
-    <col min="18" max="16384" width="12.6640625" style="14"/>
+    <col min="5" max="5" width="6.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="14" customWidth="1"/>
+    <col min="8" max="19" width="1.88671875" style="14" customWidth="1"/>
+    <col min="20" max="20" width="2.44140625" style="14" customWidth="1"/>
+    <col min="21" max="21" width="2.5546875" style="14" customWidth="1"/>
+    <col min="22" max="22" width="3" style="14" customWidth="1"/>
+    <col min="23" max="16384" width="12.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+    <row r="1" spans="1:22" ht="12.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -8055,7 +8094,7 @@
       </c>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+    <row r="2" spans="1:22" ht="12.75" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
@@ -8075,10 +8114,18 @@
         <v>5</v>
       </c>
       <c r="G2" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="1:22" ht="12.75" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -8095,13 +8142,18 @@
         <v>8</v>
       </c>
       <c r="F3" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="24"/>
+    </row>
+    <row r="4" spans="1:22" ht="12.75" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
@@ -8123,8 +8175,12 @@
       <c r="G4" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="S4" s="27"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+    </row>
+    <row r="5" spans="1:22" ht="12.75" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
@@ -8147,7 +8203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+    <row r="6" spans="1:22" ht="12.75" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>28</v>
       </c>
@@ -8170,7 +8226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+    <row r="7" spans="1:22" ht="12.75" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -8189,7 +8245,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:22" ht="12.75" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -8212,7 +8268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+    <row r="9" spans="1:22" ht="12.75" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
@@ -8235,7 +8291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+    <row r="10" spans="1:22" ht="12.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
@@ -8258,70 +8314,75 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+    <row r="11" spans="1:22" ht="12.75" customHeight="1">
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+    <row r="12" spans="1:22" ht="12.75" customHeight="1">
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1">
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+    <row r="14" spans="1:22" ht="12.75" customHeight="1">
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+    <row r="15" spans="1:22" ht="12.75" customHeight="1">
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+    <row r="16" spans="1:22" ht="12.75" customHeight="1">
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="4:4" ht="12.75" customHeight="1">
+    <row r="17" spans="4:17" ht="12.75" customHeight="1">
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="4:4" ht="12.75" customHeight="1">
+    <row r="18" spans="4:17" ht="12.75" customHeight="1">
       <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="4:4" ht="12.75" customHeight="1">
+      <c r="M18" s="26"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" spans="4:17" ht="12.75" customHeight="1">
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="4:4" ht="12.75" customHeight="1">
+    <row r="20" spans="4:17" ht="12.75" customHeight="1">
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="4:4" ht="12.75" customHeight="1">
+    <row r="21" spans="4:17" ht="12.75" customHeight="1">
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="4:4" ht="12.75" customHeight="1">
+    <row r="22" spans="4:17" ht="12.75" customHeight="1">
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="4:4" ht="12.75" customHeight="1">
+    <row r="23" spans="4:17" ht="12.75" customHeight="1">
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="4:4" ht="12.75" customHeight="1">
+    <row r="24" spans="4:17" ht="12.75" customHeight="1">
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="4:4" ht="12.75" customHeight="1">
+    <row r="25" spans="4:17" ht="12.75" customHeight="1">
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="4:4" ht="12.75" customHeight="1">
+    <row r="26" spans="4:17" ht="12.75" customHeight="1">
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="4:4" ht="12.75" customHeight="1">
+    <row r="27" spans="4:17" ht="12.75" customHeight="1">
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="4:4" ht="12.75" customHeight="1">
+    <row r="28" spans="4:17" ht="12.75" customHeight="1">
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="4:4" ht="12.75" customHeight="1">
+    <row r="29" spans="4:17" ht="12.75" customHeight="1">
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="4:4" ht="12.75" customHeight="1">
+    <row r="30" spans="4:17" ht="12.75" customHeight="1">
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="4:4" ht="12.75" customHeight="1">
+    <row r="31" spans="4:17" ht="12.75" customHeight="1">
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="4:4" ht="12.75" customHeight="1">
+    <row r="32" spans="4:17" ht="12.75" customHeight="1">
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="4:4" ht="12.75" customHeight="1">
@@ -9290,9 +9351,6 @@
     <row r="870" ht="12.75" customHeight="1"/>
     <row r="871" ht="12.75" customHeight="1"/>
     <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9317,86 +9375,86 @@
       <c r="A1" s="8">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="58.95" customHeight="1">
       <c r="A2" s="8">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="76.05" customHeight="1">
       <c r="A3" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="39.450000000000003" customHeight="1">
       <c r="A4" s="8">
         <v>4</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="77.55" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/input_data/Requirements_Data_edited.xlsx
+++ b/input_data/Requirements_Data_edited.xlsx
@@ -8051,7 +8051,7 @@
   <dimension ref="A1:V872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8111,10 +8111,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -8142,10 +8142,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
